--- a/SASIMI-VECBEE/result/compare-time/runtime-vs-l.xlsx
+++ b/SASIMI-VECBEE/result/compare-time/runtime-vs-l.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13800" windowHeight="12150"/>
+    <workbookView windowWidth="27720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>circuit</t>
   </si>
@@ -67,9 +67,6 @@
     <t>div</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>multiplier</t>
   </si>
   <si>
@@ -85,30 +82,56 @@
     <t>1$\times$</t>
   </si>
   <si>
-    <t>90$\times$</t>
-  </si>
-  <si>
-    <t>89$\times$</t>
-  </si>
-  <si>
-    <t>87$\times$</t>
-  </si>
-  <si>
-    <t>41$\times$</t>
+    <t>110$\times$</t>
+  </si>
+  <si>
+    <t>109$\times$</t>
+  </si>
+  <si>
+    <t>106$\times$</t>
+  </si>
+  <si>
+    <t>51$\times$</t>
+  </si>
+  <si>
+    <t>Arithmean on EPFL</t>
+  </si>
+  <si>
+    <t>Acceleration on EPFL</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>111x</t>
+  </si>
+  <si>
+    <t>110x</t>
+  </si>
+  <si>
+    <t>106x</t>
+  </si>
+  <si>
+    <t>50x</t>
+  </si>
+  <si>
+    <t>runtime ratio of VECBEE-SASIMI/s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +142,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -139,6 +168,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,10 +206,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,40 +268,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,44 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -252,21 +296,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -277,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,24 +497,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,32 +520,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,167 +553,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,19 +1100,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.6" customWidth="true"/>
+    <col min="1" max="1" width="17.6" customWidth="true"/>
     <col min="2" max="2" width="15" customWidth="true"/>
-    <col min="3" max="5" width="10" customWidth="true"/>
-    <col min="6" max="6" width="10.3" customWidth="true"/>
-    <col min="8" max="8" width="12.5"/>
+    <col min="3" max="6" width="12.5" customWidth="true"/>
+    <col min="7" max="8" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:6">
@@ -1222,19 +1271,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>50360.2</v>
+        <v>10297.6</v>
       </c>
       <c r="C9" s="2">
-        <v>532.680226</v>
+        <v>111.287304</v>
       </c>
       <c r="D9" s="2">
-        <v>546.306124</v>
+        <v>113.726499</v>
       </c>
       <c r="E9" s="2">
-        <v>551.05438</v>
+        <v>119.95635</v>
       </c>
       <c r="F9" s="2">
-        <v>644.027641</v>
+        <v>155.691228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1242,36 +1291,36 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>60001.9</v>
+        <v>25604.8</v>
       </c>
       <c r="C10" s="2">
-        <v>696.213805</v>
+        <v>203.604034</v>
       </c>
       <c r="D10" s="2">
-        <v>704.609141</v>
+        <v>206.950312</v>
       </c>
       <c r="E10" s="2">
-        <v>713.749328</v>
+        <v>221.058385</v>
       </c>
       <c r="F10" s="2">
-        <v>2133.147663</v>
+        <v>711.049221</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
+      <c r="B11" s="2">
+        <v>46794.2</v>
       </c>
       <c r="C11" s="2">
-        <v>1328.722137</v>
+        <v>450.111275</v>
       </c>
       <c r="D11" s="2">
-        <v>1335.902512</v>
+        <v>455.213477</v>
       </c>
       <c r="E11" s="2">
-        <v>1344.388195</v>
+        <v>469.343722</v>
       </c>
       <c r="F11" s="2">
         <v>1588.175964</v>
@@ -1279,96 +1328,523 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B12" s="2">
+        <v>40213.9</v>
+      </c>
       <c r="C12" s="2">
-        <v>1306.741641</v>
+        <v>476.19052</v>
       </c>
       <c r="D12" s="2">
-        <v>1317.461848</v>
+        <v>477.32031</v>
       </c>
       <c r="E12" s="2">
-        <v>1320.288181</v>
+        <v>491.37982</v>
       </c>
       <c r="F12" s="2">
-        <v>1621.502684</v>
+        <v>645.273554</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>115161.6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>911.1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>920.8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>931</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1683.456469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2691.157497</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2756.591802</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2793.648157</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5050.369407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="B14" s="2">
+        <f>AVERAGE(B3:B13)</f>
+        <v>22442.9090909091</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE(C3:C13)</f>
+        <v>204.099375727273</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D3:D13)</f>
+        <v>206.228236181818</v>
+      </c>
+      <c r="E14" s="2">
+        <f>AVERAGE(E3:E13)</f>
+        <v>211.858025181818</v>
+      </c>
+      <c r="F14" s="2">
+        <f>AVERAGE(F3:F13)</f>
+        <v>444.067857818182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
-        <f>AVERAGE(B3:B10)</f>
-        <v>14895.25</v>
-      </c>
-      <c r="C14" s="2">
-        <f>AVERAGE(C3:C10)</f>
-        <v>165.211753875</v>
-      </c>
-      <c r="D14" s="2">
-        <f>AVERAGE(D3:D10)</f>
-        <v>168.176908125</v>
-      </c>
-      <c r="E14" s="2">
-        <f>AVERAGE(E3:E10)</f>
-        <v>170.3129635</v>
-      </c>
-      <c r="F14" s="2">
-        <f>AVERAGE(F3:F10)</f>
-        <v>359.784413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16">
+        <f>B14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>B14/C14</f>
+        <v>109.960694445721</v>
+      </c>
+      <c r="D16">
+        <f>B14/D14</f>
+        <v>108.82558812714</v>
+      </c>
+      <c r="E16">
+        <f>B14/E14</f>
+        <v>105.933721753747</v>
+      </c>
+      <c r="F16">
+        <f>B14/F14</f>
+        <v>50.539368467641</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1"/>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7">
+        <v>10297.6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>111.287304</v>
+      </c>
+      <c r="D22" s="2">
+        <v>113.726499</v>
+      </c>
+      <c r="E22" s="2">
+        <v>119.95635</v>
+      </c>
+      <c r="F22" s="2">
+        <v>155.691228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7">
+        <v>25604.8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>203.604034</v>
+      </c>
+      <c r="D23" s="2">
+        <v>206.950312</v>
+      </c>
+      <c r="E23" s="2">
+        <v>221.058385</v>
+      </c>
+      <c r="F23" s="2">
+        <v>711.049221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="7">
+        <v>46794.2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>450.111275</v>
+      </c>
+      <c r="D24" s="2">
+        <v>455.213477</v>
+      </c>
+      <c r="E24" s="2">
+        <v>469.343722</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1588.175964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="7">
+        <v>40213.9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>476.19052</v>
+      </c>
+      <c r="D25" s="2">
+        <v>477.32031</v>
+      </c>
+      <c r="E25" s="2">
+        <v>491.37982</v>
+      </c>
+      <c r="F25" s="2">
+        <v>645.273554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="7">
+        <v>115161.6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>911.1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>920.8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>931</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1683.456469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <f t="shared" ref="B27:F27" si="0">AVERAGE(B22:B26)</f>
+        <v>47614.42</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="0"/>
+        <v>430.4586266</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>434.8021196</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>446.5476554</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>956.7292872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <f>B27/B27</f>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f>B27/C27</f>
+        <v>110.613232161439</v>
+      </c>
+      <c r="D29">
+        <f>B27/D27</f>
+        <v>109.508251808439</v>
+      </c>
+      <c r="E29">
+        <f>B27/E27</f>
+        <v>106.627858021892</v>
+      </c>
+      <c r="F29">
+        <f>B27/F27</f>
+        <v>49.7679130732479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="9">
+        <f>C3/B3</f>
+        <v>0.0105592491200626</v>
+      </c>
+      <c r="D34" s="9">
+        <f>D3/B3</f>
+        <v>0.011211054621301</v>
+      </c>
+      <c r="E34" s="9">
+        <f>E3/B3</f>
+        <v>0.0113414157215487</v>
+      </c>
+      <c r="F34" s="9">
+        <f>F3/B3</f>
+        <v>0.0116021379220441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="9">
+        <f>C4/B4</f>
+        <v>0.0139127588182339</v>
+      </c>
+      <c r="D35" s="9">
+        <f>D4/B4</f>
+        <v>0.0139945985759882</v>
+      </c>
+      <c r="E35" s="9">
+        <f>E4/B4</f>
+        <v>0.0141582780914968</v>
+      </c>
+      <c r="F35" s="9">
+        <f>F4/B4</f>
+        <v>0.0148129961535314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="9">
+        <f>C5/B5</f>
+        <v>0.00805317203544802</v>
+      </c>
+      <c r="D36" s="9">
+        <f>D5/B5</f>
+        <v>0.00829933886622591</v>
+      </c>
+      <c r="E36" s="9">
+        <f>E5/B5</f>
+        <v>0.00836967224644817</v>
+      </c>
+      <c r="F36" s="9">
+        <f>F5/B5</f>
+        <v>0.00840483893655929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="9">
+        <f>C6/B6</f>
+        <v>0.0182565789473684</v>
+      </c>
+      <c r="D37" s="9">
+        <f>D6/B6</f>
+        <v>0.0185855263157895</v>
+      </c>
+      <c r="E37" s="9">
+        <f>E6/B6</f>
+        <v>0.0185855263157895</v>
+      </c>
+      <c r="F37" s="9">
+        <f>F6/B6</f>
+        <v>0.01875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="9">
+        <f>C7/B7</f>
+        <v>0.0102982479604119</v>
+      </c>
+      <c r="D38" s="9">
+        <f>D7/B7</f>
+        <v>0.0102982479604119</v>
+      </c>
+      <c r="E38" s="9">
+        <f>E7/B7</f>
+        <v>0.0115019392804601</v>
+      </c>
+      <c r="F38" s="9">
+        <f>F7/B7</f>
+        <v>0.0125718871205029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="9">
+        <f>C8/B8</f>
+        <v>0.00981812328987607</v>
+      </c>
+      <c r="D39" s="9">
+        <f>D8/B8</f>
+        <v>0.00992542518375449</v>
+      </c>
+      <c r="E39" s="9">
+        <f>E8/B8</f>
+        <v>0.0104082837062074</v>
+      </c>
+      <c r="F39" s="9">
+        <f>F8/B8</f>
+        <v>0.0107301893878427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" ref="C40:F40" si="1">AVERAGE(C34:C39)</f>
+        <v>0.0118163550285668</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0120523652539118</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0123941858936584</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0128120082534134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="10">
+        <f t="shared" ref="C41:F41" si="2">1/C40</f>
+        <v>84.6284660187032</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="2"/>
+        <v>82.9712657169455</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="2"/>
+        <v>80.6829918947444</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="2"/>
+        <v>78.0517761322531</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
